--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H2">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I2">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J2">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>1590.606758731594</v>
+        <v>1684.286290351866</v>
       </c>
       <c r="R2">
-        <v>14315.46082858434</v>
+        <v>15158.57661316679</v>
       </c>
       <c r="S2">
-        <v>0.001224444114156257</v>
+        <v>0.001288711132375068</v>
       </c>
       <c r="T2">
-        <v>0.001366054848466141</v>
+        <v>0.001399521274599377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H3">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I3">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J3">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>1702.178338424557</v>
+        <v>2043.24329283502</v>
       </c>
       <c r="R3">
-        <v>15319.60504582101</v>
+        <v>18389.18963551518</v>
       </c>
       <c r="S3">
-        <v>0.001310331567678148</v>
+        <v>0.001563362709006607</v>
       </c>
       <c r="T3">
-        <v>0.001461875450606759</v>
+        <v>0.001697788834288796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H4">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I4">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J4">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>854.7193524988163</v>
+        <v>1153.512093850051</v>
       </c>
       <c r="R4">
-        <v>7692.474172489347</v>
+        <v>10381.60884465046</v>
       </c>
       <c r="S4">
-        <v>0.0006579602875931347</v>
+        <v>0.0008825957232978958</v>
       </c>
       <c r="T4">
-        <v>0.000734055422026453</v>
+        <v>0.0009584859326460232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H5">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I5">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J5">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>1947.776523115901</v>
+        <v>1257.991874025475</v>
       </c>
       <c r="R5">
-        <v>11686.65913869541</v>
+        <v>7547.951244152851</v>
       </c>
       <c r="S5">
-        <v>0.001499392283057343</v>
+        <v>0.00096253715403414</v>
       </c>
       <c r="T5">
-        <v>0.001115201080143275</v>
+        <v>0.000696867431250454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H6">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I6">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J6">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>976.52248024986</v>
+        <v>1240.96190311722</v>
       </c>
       <c r="R6">
-        <v>8788.702322248739</v>
+        <v>11168.65712805498</v>
       </c>
       <c r="S6">
-        <v>0.0007517239548489677</v>
+        <v>0.0009495068793004383</v>
       </c>
       <c r="T6">
-        <v>0.0008386631462859292</v>
+        <v>0.001031150460778882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
         <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J7">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>8391.46182973451</v>
+        <v>7402.453552623916</v>
       </c>
       <c r="R7">
-        <v>75523.15646761059</v>
+        <v>66622.08197361525</v>
       </c>
       <c r="S7">
-        <v>0.006459721103397592</v>
+        <v>0.005663897138391408</v>
       </c>
       <c r="T7">
-        <v>0.007206807751381958</v>
+        <v>0.006150908720492294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
         <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J8">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>8980.072840681853</v>
       </c>
       <c r="R8">
-        <v>80820.65556613667</v>
+        <v>80820.65556613669</v>
       </c>
       <c r="S8">
-        <v>0.006912832020929949</v>
+        <v>0.006870993313677117</v>
       </c>
       <c r="T8">
-        <v>0.007712322342559964</v>
+        <v>0.007461797355935707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
         <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J9">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>4509.187944950451</v>
+        <v>5069.696135406473</v>
       </c>
       <c r="R9">
-        <v>40582.69150455406</v>
+        <v>45627.26521865826</v>
       </c>
       <c r="S9">
-        <v>0.003471158794284119</v>
+        <v>0.003879016224784618</v>
       </c>
       <c r="T9">
-        <v>0.003872609003470273</v>
+        <v>0.004212554384547859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
         <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J10">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>10275.7593961275</v>
+        <v>5528.885718773184</v>
       </c>
       <c r="R10">
-        <v>61654.55637676502</v>
+        <v>33173.31431263911</v>
       </c>
       <c r="S10">
-        <v>0.007910247483864324</v>
+        <v>0.004230359539365493</v>
       </c>
       <c r="T10">
-        <v>0.005883394651210661</v>
+        <v>0.003062738693366763</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
         <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J11">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>5151.77687628394</v>
+        <v>5454.03884186572</v>
       </c>
       <c r="R11">
-        <v>46365.99188655546</v>
+        <v>49086.34957679149</v>
       </c>
       <c r="S11">
-        <v>0.003965821746314251</v>
+        <v>0.004173091363493797</v>
       </c>
       <c r="T11">
-        <v>0.004424481249957384</v>
+        <v>0.004531915646055515</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H12">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I12">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J12">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>158083.8298110248</v>
+        <v>63590.36456193615</v>
       </c>
       <c r="R12">
-        <v>1422754.468299223</v>
+        <v>572313.2810574253</v>
       </c>
       <c r="S12">
-        <v>0.1216924383684527</v>
+        <v>0.04865539260883966</v>
       </c>
       <c r="T12">
-        <v>0.1357665437997093</v>
+        <v>0.05283903845430438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H13">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I13">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J13">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>169172.4678537767</v>
+        <v>77142.8151047681</v>
       </c>
       <c r="R13">
-        <v>1522552.21068399</v>
+        <v>694285.335942913</v>
       </c>
       <c r="S13">
-        <v>0.1302284372952295</v>
+        <v>0.05902488500781976</v>
       </c>
       <c r="T13">
-        <v>0.1452897573017485</v>
+        <v>0.06410015419590839</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H14">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I14">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J14">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>84947.02283571303</v>
+        <v>43550.94201900969</v>
       </c>
       <c r="R14">
-        <v>764523.2055214171</v>
+        <v>391958.4781710872</v>
       </c>
       <c r="S14">
-        <v>0.06539195282260057</v>
+        <v>0.03332247262642853</v>
       </c>
       <c r="T14">
-        <v>0.07295473363889514</v>
+        <v>0.03618771359334331</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H15">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I15">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J15">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>193581.4560700746</v>
+        <v>47495.58453540647</v>
       </c>
       <c r="R15">
-        <v>1161488.736420447</v>
+        <v>284973.5072124389</v>
       </c>
       <c r="S15">
-        <v>0.1490184001756768</v>
+        <v>0.0363406677831786</v>
       </c>
       <c r="T15">
-        <v>0.1108352248540831</v>
+        <v>0.02631028599971484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H16">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I16">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J16">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>97052.5321403517</v>
+        <v>46852.61661199668</v>
       </c>
       <c r="R16">
-        <v>873472.7892631652</v>
+        <v>421673.5495079702</v>
       </c>
       <c r="S16">
-        <v>0.07471073607028944</v>
+        <v>0.03584870871101566</v>
       </c>
       <c r="T16">
-        <v>0.08335126288031536</v>
+        <v>0.03893116870614615</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H17">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I17">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J17">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>11441.53185809818</v>
+        <v>21211.21822326286</v>
       </c>
       <c r="R17">
-        <v>68649.19114858907</v>
+        <v>127267.3093395772</v>
       </c>
       <c r="S17">
-        <v>0.00880765548346551</v>
+        <v>0.01622950516912725</v>
       </c>
       <c r="T17">
-        <v>0.006550858650987818</v>
+        <v>0.01175000209630819</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H18">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I18">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J18">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>12244.08709465039</v>
+        <v>25731.77708315114</v>
       </c>
       <c r="R18">
-        <v>73464.52256790233</v>
+        <v>154390.6624989068</v>
       </c>
       <c r="S18">
-        <v>0.009425459997552487</v>
+        <v>0.01968835569867571</v>
       </c>
       <c r="T18">
-        <v>0.007010362324050832</v>
+        <v>0.01425417585573506</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H19">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I19">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J19">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>6148.156134547432</v>
+        <v>14526.86332839222</v>
       </c>
       <c r="R19">
-        <v>36888.93680728459</v>
+        <v>87161.17997035332</v>
       </c>
       <c r="S19">
-        <v>0.004732831386849785</v>
+        <v>0.01111505246882891</v>
       </c>
       <c r="T19">
-        <v>0.003520131945716448</v>
+        <v>0.008047188651059684</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H20">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I20">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J20">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>14010.7207638534</v>
+        <v>15842.63929232083</v>
       </c>
       <c r="R20">
-        <v>56042.88305541359</v>
+        <v>63370.5571692833</v>
       </c>
       <c r="S20">
-        <v>0.01078540907751922</v>
+        <v>0.01212180241516499</v>
       </c>
       <c r="T20">
-        <v>0.005347899940950728</v>
+        <v>0.005850710472683362</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H21">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I21">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J21">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>7024.308809574971</v>
+        <v>15628.17074778654</v>
       </c>
       <c r="R21">
-        <v>42145.85285744982</v>
+        <v>93769.02448671924</v>
       </c>
       <c r="S21">
-        <v>0.005407290979172415</v>
+        <v>0.0119577044215704</v>
       </c>
       <c r="T21">
-        <v>0.004021773893837921</v>
+        <v>0.008657260375859111</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H22">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I22">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J22">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>112676.6148178374</v>
+        <v>204388.9427433503</v>
       </c>
       <c r="R22">
-        <v>1014089.533360537</v>
+        <v>1839500.484690153</v>
       </c>
       <c r="S22">
-        <v>0.08673810610912527</v>
+        <v>0.1563857091021617</v>
       </c>
       <c r="T22">
-        <v>0.09676963532042443</v>
+        <v>0.1698325725862403</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H23">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I23">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J23">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>120580.2074818763</v>
+        <v>247948.5457919074</v>
       </c>
       <c r="R23">
-        <v>1085221.867336887</v>
+        <v>2231536.912127167</v>
       </c>
       <c r="S23">
-        <v>0.09282226705276928</v>
+        <v>0.1897148086098155</v>
       </c>
       <c r="T23">
-        <v>0.1035574482224779</v>
+        <v>0.2060274828748135</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H24">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I24">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J24">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>60547.26143352935</v>
+        <v>139979.2414473826</v>
       </c>
       <c r="R24">
-        <v>544925.3529017642</v>
+        <v>1259813.173026443</v>
       </c>
       <c r="S24">
-        <v>0.04660909271483572</v>
+        <v>0.1071034109747301</v>
       </c>
       <c r="T24">
-        <v>0.05199957788974589</v>
+        <v>0.1163127239888465</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H25">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I25">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J25">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>137978.0790202158</v>
+        <v>152657.9124847461</v>
       </c>
       <c r="R25">
-        <v>827868.4741212945</v>
+        <v>915947.4749084766</v>
       </c>
       <c r="S25">
-        <v>0.1062150942157533</v>
+        <v>0.1168043416319275</v>
       </c>
       <c r="T25">
-        <v>0.07899946474007405</v>
+        <v>0.08456519436241391</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H26">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I26">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J26">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>69175.64430306807</v>
+        <v>150591.317411909</v>
       </c>
       <c r="R26">
-        <v>622580.7987276127</v>
+        <v>1355321.856707181</v>
       </c>
       <c r="S26">
-        <v>0.05325119489458394</v>
+        <v>0.115223111592989</v>
       </c>
       <c r="T26">
-        <v>0.05940985965087382</v>
+        <v>0.1251305990526616</v>
       </c>
     </row>
   </sheetData>
